--- a/backend/clearingfeed.xlsx
+++ b/backend/clearingfeed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anushka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E788FF-86BD-4B90-8A42-E4DF207E1B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D15FB-748B-4574-BECD-ABD36D9C4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Anushka</t>
   </si>
@@ -69,29 +63,95 @@
     <t>Aparna</t>
   </si>
   <si>
-    <t>Transaction_ref_no</t>
-  </si>
-  <si>
-    <t>Payer_account</t>
-  </si>
-  <si>
-    <t>Payer_name</t>
-  </si>
-  <si>
-    <t>Payee_account</t>
-  </si>
-  <si>
-    <t>payee_name</t>
+    <t>546.32</t>
+  </si>
+  <si>
+    <t>23487.09</t>
+  </si>
+  <si>
+    <t>32456</t>
+  </si>
+  <si>
+    <t>23111.08</t>
+  </si>
+  <si>
+    <t>123456789123</t>
+  </si>
+  <si>
+    <t>345678912345</t>
+  </si>
+  <si>
+    <t>567891234567</t>
+  </si>
+  <si>
+    <t>789123456789</t>
+  </si>
+  <si>
+    <t>901234567890</t>
+  </si>
+  <si>
+    <t>123456743567</t>
+  </si>
+  <si>
+    <t>27/05/2023</t>
+  </si>
+  <si>
+    <t>987654321989</t>
+  </si>
+  <si>
+    <t>876543219878</t>
+  </si>
+  <si>
+    <t>765432176578</t>
+  </si>
+  <si>
+    <t>654321987658</t>
+  </si>
+  <si>
+    <t>543219876545</t>
+  </si>
+  <si>
+    <t>321987654323</t>
+  </si>
+  <si>
+    <t>876543219879</t>
+  </si>
+  <si>
+    <t>543219876578</t>
+  </si>
+  <si>
+    <t>436567234182</t>
+  </si>
+  <si>
+    <t>835422787690</t>
+  </si>
+  <si>
+    <t>654433826345</t>
+  </si>
+  <si>
+    <t>883542712304</t>
+  </si>
+  <si>
+    <t>9000.33</t>
+  </si>
+  <si>
+    <t>20000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,15 +495,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7BB000-4A30-4982-86D3-BD9707B3B4E1}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
     <col min="5" max="6" width="13.5546875" customWidth="1"/>
@@ -450,184 +512,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
+      <c r="E1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>12345678912</v>
-      </c>
-      <c r="B2" s="1">
-        <v>23042022</v>
-      </c>
-      <c r="C2" s="1">
-        <v>98765432198</v>
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>87654321987</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>9000</v>
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>34567891234</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24072023</v>
-      </c>
-      <c r="C3" s="1">
-        <v>87654321987</v>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5432198765</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2000</v>
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>56789123456</v>
-      </c>
-      <c r="B4" s="1">
-        <v>11042021</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7654321765</v>
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43656723418</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1">
-        <v>546.32000000000005</v>
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>78912345678</v>
-      </c>
-      <c r="B5" s="1">
-        <v>21092023</v>
-      </c>
-      <c r="C5" s="1">
-        <v>65432198765</v>
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8354227876</v>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>23487.09</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>90123456789</v>
-      </c>
-      <c r="B6" s="1">
-        <v>31072023</v>
-      </c>
-      <c r="C6" s="1">
-        <v>54321987654</v>
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6544338263</v>
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1">
-        <v>32456</v>
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>12345674356</v>
-      </c>
-      <c r="B7" s="1">
-        <v>19082021</v>
-      </c>
-      <c r="C7" s="1">
-        <v>32198765432</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>88354271</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>23111.08</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/backend/clearingfeed.xlsx
+++ b/backend/clearingfeed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4D15FB-748B-4574-BECD-ABD36D9C4613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032926D9-DF99-495A-AA57-0A5661494F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{74449CC9-AAE2-4CC1-9901-DAC8D6742FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>Anushka</t>
   </si>
@@ -111,9 +111,6 @@
     <t>543219876545</t>
   </si>
   <si>
-    <t>321987654323</t>
-  </si>
-  <si>
     <t>876543219879</t>
   </si>
   <si>
@@ -136,13 +133,220 @@
   </si>
   <si>
     <t>20000000</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>28/05/2023</t>
+  </si>
+  <si>
+    <t>Nidhi</t>
+  </si>
+  <si>
+    <t>985736412015</t>
+  </si>
+  <si>
+    <t>Fatma</t>
+  </si>
+  <si>
+    <t>865794325104</t>
+  </si>
+  <si>
+    <t>20000.05</t>
+  </si>
+  <si>
+    <t>123456789012</t>
+  </si>
+  <si>
+    <t>123456789013</t>
+  </si>
+  <si>
+    <t>1234567895690</t>
+  </si>
+  <si>
+    <t>457159658272</t>
+  </si>
+  <si>
+    <t>148269967067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163270430582 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">308211521918 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">808996461895 </t>
+  </si>
+  <si>
+    <t>715296393080</t>
+  </si>
+  <si>
+    <t>28930710671</t>
+  </si>
+  <si>
+    <t>Shambhavi</t>
+  </si>
+  <si>
+    <t>Asmita</t>
+  </si>
+  <si>
+    <t>Snigdha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352393034643 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">177109273501 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">170067584036 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">973275374879 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">641077371097 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">565408035842 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">857962210588 </t>
+  </si>
+  <si>
+    <t>829944761579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">003889837021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">614624038899 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">596469694053 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">077037687025 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">891978785241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">513978617410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">556640873305 </t>
+  </si>
+  <si>
+    <t>863436013#78</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Johnnie</t>
+  </si>
+  <si>
+    <t>Alana</t>
+  </si>
+  <si>
+    <t>Conard</t>
+  </si>
+  <si>
+    <t>Portar</t>
+  </si>
+  <si>
+    <t>Lupe</t>
+  </si>
+  <si>
+    <t>Lyman</t>
+  </si>
+  <si>
+    <t>lya</t>
+  </si>
+  <si>
+    <t>Perticia</t>
+  </si>
+  <si>
+    <t>Darrin</t>
+  </si>
+  <si>
+    <t>Linwood</t>
+  </si>
+  <si>
+    <t>Darren</t>
+  </si>
+  <si>
+    <t>Delroes</t>
+  </si>
+  <si>
+    <t>Stacie</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leta </t>
+  </si>
+  <si>
+    <t>Edwina</t>
+  </si>
+  <si>
+    <t>12568</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>8400</t>
+  </si>
+  <si>
+    <t>55000</t>
+  </si>
+  <si>
+    <t>489666</t>
+  </si>
+  <si>
+    <t>1758669.03</t>
+  </si>
+  <si>
+    <t>45000.70</t>
+  </si>
+  <si>
+    <t>62384</t>
+  </si>
+  <si>
+    <t>44009.21</t>
+  </si>
+  <si>
+    <t>875691.36</t>
+  </si>
+  <si>
+    <t>2023/05/29</t>
+  </si>
+  <si>
+    <t>29/05/2023</t>
+  </si>
+  <si>
+    <t>05/29/2023</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>30/05/20</t>
+  </si>
+  <si>
+    <t>26484016912</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +356,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,10 +388,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7BB000-4A30-4982-86D3-BD9707B3B4E1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,20 +732,20 @@
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -542,20 +756,20 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -566,17 +780,17 @@
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>12</v>
@@ -590,17 +804,17 @@
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
@@ -614,17 +828,17 @@
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>14</v>
@@ -638,17 +852,17 @@
       <c r="B6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>15</v>
@@ -656,14 +870,258 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
